--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1668,11 +1668,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -1812,7 +1812,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,7 +1823,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,7 +1834,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,7 +1845,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">Merge Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Next Permutation</t>
@@ -1436,7 +1439,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1459,7 +1461,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1467,7 +1468,6 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1476,7 +1476,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1484,7 +1483,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1492,14 +1490,12 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1668,28 +1664,29 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="10.51"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1700,12 +1697,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1716,7 +1713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1738,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1749,7 +1746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1760,7 +1757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1771,7 +1768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1782,7 +1779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1793,7 +1790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1815,7 +1812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +1823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1837,7 +1834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1848,7 +1845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1856,4884 +1853,4884 @@
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="B45" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="B57" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="B102" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="B140" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B177" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="B178" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B214" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C214" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="B215" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B238" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C238" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="B239" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B275" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="B276" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B296" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="B297" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B336" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C336" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="6" t="s">
-        <v>327</v>
-      </c>
       <c r="B337" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B356" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C356" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="B357" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B402" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C402" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="6" t="s">
-        <v>390</v>
-      </c>
       <c r="B403" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B410" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C410" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="6" t="s">
-        <v>396</v>
-      </c>
       <c r="B411" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B472" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C472" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="6" t="s">
-        <v>456</v>
-      </c>
       <c r="B473" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1439,6 +1439,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1461,6 +1462,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1468,6 +1470,7 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1476,6 +1479,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1483,6 +1487,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1490,12 +1495,14 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1664,11 +1671,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C144" activeCellId="0" sqref="C144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3134,7 +3141,7 @@
         <v>141</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,7 +3152,7 @@
         <v>142</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,7 +3163,7 @@
         <v>143</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,7 +3174,7 @@
         <v>144</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,7 +3196,7 @@
         <v>146</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,7 +3207,7 @@
         <v>147</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3211,7 +3218,7 @@
         <v>148</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1433,7 +1433,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1504,13 +1504,26 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1522,7 +1535,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1549,8 +1562,11 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1587,12 +1603,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -1600,6 +1620,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+    <cellStyle name="Good" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1612,7 +1633,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1671,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C144" activeCellId="0" sqref="C144"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C158" activeCellId="0" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3118,7 +3139,7 @@
       <c r="B139" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3129,7 +3150,7 @@
       <c r="B140" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3140,7 +3161,7 @@
       <c r="B141" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3151,7 +3172,7 @@
       <c r="B142" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3162,7 +3183,7 @@
       <c r="B143" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3173,7 +3194,7 @@
       <c r="B144" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3195,7 +3216,7 @@
       <c r="B146" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3206,7 +3227,7 @@
       <c r="B147" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3217,7 +3238,7 @@
       <c r="B148" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3250,8 +3271,8 @@
       <c r="B151" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>5</v>
+      <c r="C151" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,8 +3293,8 @@
       <c r="B153" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>5</v>
+      <c r="C153" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3976,7 +3997,7 @@
       <c r="A220" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="10" t="s">
         <v>218</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -4913,7 +4934,7 @@
       <c r="A309" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="B309" s="10" t="s">
         <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
@@ -5284,7 +5305,7 @@
       <c r="A344" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B344" s="10" t="s">
         <v>337</v>
       </c>
       <c r="C344" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1455,6 +1455,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1500,13 +1507,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1559,10 +1559,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -1571,19 +1571,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1591,23 +1591,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1619,8 +1619,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Good 1" xfId="21"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
-    <cellStyle name="Good" xfId="21"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1692,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C158" activeCellId="0" sqref="C158"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B138" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B150" activeCellId="0" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3249,8 +3249,8 @@
       <c r="B149" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>5</v>
+      <c r="C149" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1692,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B138" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B150" activeCellId="0" sqref="B150"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B156" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D163" activeCellId="0" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3348,8 +3348,8 @@
       <c r="B158" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>5</v>
+      <c r="C158" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,8 +3359,8 @@
       <c r="B159" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>5</v>
+      <c r="C159" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,8 +3370,8 @@
       <c r="B160" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>5</v>
+      <c r="C160" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,8 +3414,8 @@
       <c r="B164" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>5</v>
+      <c r="C164" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,8 +3447,8 @@
       <c r="B167" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>5</v>
+      <c r="C167" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1692,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B156" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D163" activeCellId="0" sqref="D163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A469" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3304,8 +3304,8 @@
       <c r="B154" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>5</v>
+      <c r="C154" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,8 +3326,8 @@
       <c r="B156" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>5</v>
+      <c r="C156" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,8 +3337,8 @@
       <c r="B157" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>5</v>
+      <c r="C157" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,8 +3425,8 @@
       <c r="B165" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>5</v>
+      <c r="C165" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1692,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A469" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C154" activeCellId="0" sqref="C154:C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3315,8 +3315,8 @@
       <c r="B155" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>5</v>
+      <c r="C155" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1692,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C154" activeCellId="0" sqref="C154:C155"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B180" activeCellId="0" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3539,8 +3539,8 @@
       <c r="B177" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>5</v>
+      <c r="C177" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,8 +3550,8 @@
       <c r="B178" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C178" s="5" t="s">
-        <v>5</v>
+      <c r="C178" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,8 +3561,8 @@
       <c r="B179" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>5</v>
+      <c r="C179" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1693,7 +1693,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B180" activeCellId="0" sqref="B180"/>
+      <selection pane="topLeft" activeCell="C186" activeCellId="0" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3572,8 +3572,8 @@
       <c r="B180" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>5</v>
+      <c r="C180" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,8 +3583,8 @@
       <c r="B181" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>5</v>
+      <c r="C181" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,8 +3594,8 @@
       <c r="B182" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>5</v>
+      <c r="C182" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,8 +3605,8 @@
       <c r="B183" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>5</v>
+      <c r="C183" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3616,8 +3616,8 @@
       <c r="B184" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="5" t="s">
-        <v>5</v>
+      <c r="C184" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,8 +3627,8 @@
       <c r="B185" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>5</v>
+      <c r="C185" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,8 +3638,8 @@
       <c r="B186" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>5</v>
+      <c r="C186" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1692,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C186" activeCellId="0" sqref="C186"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B192" activeCellId="0" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3671,8 +3671,8 @@
       <c r="B189" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>5</v>
+      <c r="C189" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3682,8 +3682,8 @@
       <c r="B190" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="5" t="s">
-        <v>5</v>
+      <c r="C190" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,8 +3693,8 @@
       <c r="B191" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>5</v>
+      <c r="C191" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1692,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B192" activeCellId="0" sqref="B192"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E186" activeCellId="0" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3704,8 +3704,8 @@
       <c r="B192" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>5</v>
+      <c r="C192" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="469">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -1067,6 +1067,9 @@
   </si>
   <si>
     <t xml:space="preserve">Create a Graph, print it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
   </si>
   <si>
     <t xml:space="preserve">Implement BFS algorithm </t>
@@ -1512,7 +1515,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1525,6 +1528,12 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -1535,7 +1544,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1565,8 +1574,11 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1603,6 +1615,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1611,8 +1627,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -1620,6 +1640,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Good 1" xfId="21"/>
+    <cellStyle name="Good 2" xfId="22"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
@@ -1673,7 +1694,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1692,8 +1713,8 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E186" activeCellId="0" sqref="E186"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B355" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C360" activeCellId="0" sqref="C360:C361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2739,8 +2760,8 @@
       <c r="B101" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>5</v>
+      <c r="C101" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,7 +3160,7 @@
       <c r="B139" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3150,7 +3171,7 @@
       <c r="B140" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3161,7 +3182,7 @@
       <c r="B141" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3172,7 +3193,7 @@
       <c r="B142" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3183,7 +3204,7 @@
       <c r="B143" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C143" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3194,7 +3215,7 @@
       <c r="B144" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3216,7 +3237,7 @@
       <c r="B146" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C146" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3227,7 +3248,7 @@
       <c r="B147" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C147" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3238,7 +3259,7 @@
       <c r="B148" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3249,7 +3270,7 @@
       <c r="B149" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3271,7 +3292,7 @@
       <c r="B151" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3293,7 +3314,7 @@
       <c r="B153" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3304,7 +3325,7 @@
       <c r="B154" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3315,7 +3336,7 @@
       <c r="B155" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3326,7 +3347,7 @@
       <c r="B156" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3337,7 +3358,7 @@
       <c r="B157" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3348,7 +3369,7 @@
       <c r="B158" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3359,7 +3380,7 @@
       <c r="B159" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3370,7 +3391,7 @@
       <c r="B160" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3414,7 +3435,7 @@
       <c r="B164" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3425,7 +3446,7 @@
       <c r="B165" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C165" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3447,7 +3468,7 @@
       <c r="B167" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3539,7 +3560,7 @@
       <c r="B177" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3550,7 +3571,7 @@
       <c r="B178" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="C178" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3561,7 +3582,7 @@
       <c r="B179" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C179" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3572,7 +3593,7 @@
       <c r="B180" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C180" s="9" t="s">
+      <c r="C180" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3583,7 +3604,7 @@
       <c r="B181" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C181" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3594,7 +3615,7 @@
       <c r="B182" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C182" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3605,7 +3626,7 @@
       <c r="B183" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C183" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3616,7 +3637,7 @@
       <c r="B184" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="C184" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3627,7 +3648,7 @@
       <c r="B185" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C185" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3638,7 +3659,7 @@
       <c r="B186" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C186" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3671,7 +3692,7 @@
       <c r="B189" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C189" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3682,7 +3703,7 @@
       <c r="B190" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3693,7 +3714,7 @@
       <c r="B191" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="9" t="s">
+      <c r="C191" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3704,7 +3725,7 @@
       <c r="B192" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="9" t="s">
+      <c r="C192" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3715,8 +3736,8 @@
       <c r="B193" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>5</v>
+      <c r="C193" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,7 +4018,7 @@
       <c r="A220" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="11" t="s">
         <v>218</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -4934,7 +4955,7 @@
       <c r="A309" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="11" t="s">
         <v>303</v>
       </c>
       <c r="C309" s="5" t="s">
@@ -5305,7 +5326,7 @@
       <c r="A344" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="11" t="s">
         <v>337</v>
       </c>
       <c r="C344" s="5" t="s">
@@ -5426,8 +5447,8 @@
       <c r="B356" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="C356" s="5" t="s">
-        <v>5</v>
+      <c r="C356" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,10 +5456,10 @@
         <v>347</v>
       </c>
       <c r="B357" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C357" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5446,10 +5467,10 @@
         <v>347</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>5</v>
+        <v>351</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5457,10 +5478,10 @@
         <v>347</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>5</v>
+        <v>352</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,10 +5489,10 @@
         <v>347</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C360" s="5" t="s">
-        <v>5</v>
+        <v>353</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,10 +5500,10 @@
         <v>347</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C361" s="5" t="s">
-        <v>5</v>
+        <v>354</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5490,7 +5511,7 @@
         <v>347</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>5</v>
@@ -5501,7 +5522,7 @@
         <v>347</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>5</v>
@@ -5512,7 +5533,7 @@
         <v>347</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>5</v>
@@ -5523,7 +5544,7 @@
         <v>347</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>5</v>
@@ -5534,7 +5555,7 @@
         <v>347</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>5</v>
@@ -5545,7 +5566,7 @@
         <v>347</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>5</v>
@@ -5556,7 +5577,7 @@
         <v>347</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>5</v>
@@ -5567,7 +5588,7 @@
         <v>347</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>5</v>
@@ -5578,7 +5599,7 @@
         <v>347</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>5</v>
@@ -5589,7 +5610,7 @@
         <v>347</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>5</v>
@@ -5600,7 +5621,7 @@
         <v>347</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>5</v>
@@ -5611,7 +5632,7 @@
         <v>347</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
@@ -5622,7 +5643,7 @@
         <v>347</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>5</v>
@@ -5633,7 +5654,7 @@
         <v>347</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>5</v>
@@ -5644,7 +5665,7 @@
         <v>347</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
@@ -5655,7 +5676,7 @@
         <v>347</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>5</v>
@@ -5666,7 +5687,7 @@
         <v>347</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>5</v>
@@ -5677,7 +5698,7 @@
         <v>347</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
@@ -5688,7 +5709,7 @@
         <v>347</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
@@ -5699,7 +5720,7 @@
         <v>347</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
@@ -5710,7 +5731,7 @@
         <v>347</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
@@ -5721,7 +5742,7 @@
         <v>347</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
@@ -5732,7 +5753,7 @@
         <v>347</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
@@ -5743,7 +5764,7 @@
         <v>347</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
@@ -5754,7 +5775,7 @@
         <v>347</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
@@ -5765,7 +5786,7 @@
         <v>347</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
@@ -5776,7 +5797,7 @@
         <v>347</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
@@ -5787,7 +5808,7 @@
         <v>347</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
@@ -5798,7 +5819,7 @@
         <v>347</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
@@ -5809,7 +5830,7 @@
         <v>347</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
@@ -5820,7 +5841,7 @@
         <v>347</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
@@ -5831,7 +5852,7 @@
         <v>347</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
@@ -5842,7 +5863,7 @@
         <v>347</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
@@ -5853,7 +5874,7 @@
         <v>347</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -5864,7 +5885,7 @@
         <v>347</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -5875,7 +5896,7 @@
         <v>347</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -5886,7 +5907,7 @@
         <v>347</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -5897,7 +5918,7 @@
         <v>347</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -5913,10 +5934,10 @@
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
@@ -5924,10 +5945,10 @@
     </row>
     <row r="403" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
@@ -5935,10 +5956,10 @@
     </row>
     <row r="404" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -5946,7 +5967,7 @@
     </row>
     <row r="405" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B405" s="7" t="s">
         <v>93</v>
@@ -5957,10 +5978,10 @@
     </row>
     <row r="406" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -5968,10 +5989,10 @@
     </row>
     <row r="407" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
@@ -5987,10 +6008,10 @@
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
@@ -5998,10 +6019,10 @@
     </row>
     <row r="411" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
@@ -6009,10 +6030,10 @@
     </row>
     <row r="412" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>5</v>
@@ -6020,10 +6041,10 @@
     </row>
     <row r="413" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
@@ -6031,10 +6052,10 @@
     </row>
     <row r="414" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
@@ -6042,10 +6063,10 @@
     </row>
     <row r="415" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>5</v>
@@ -6053,10 +6074,10 @@
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>5</v>
@@ -6064,7 +6085,7 @@
     </row>
     <row r="417" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B417" s="7" t="s">
         <v>277</v>
@@ -6075,10 +6096,10 @@
     </row>
     <row r="418" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>5</v>
@@ -6086,10 +6107,10 @@
     </row>
     <row r="419" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>5</v>
@@ -6097,10 +6118,10 @@
     </row>
     <row r="420" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>5</v>
@@ -6108,10 +6129,10 @@
     </row>
     <row r="421" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>5</v>
@@ -6119,10 +6140,10 @@
     </row>
     <row r="422" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>5</v>
@@ -6130,10 +6151,10 @@
     </row>
     <row r="423" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>5</v>
@@ -6141,10 +6162,10 @@
     </row>
     <row r="424" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>5</v>
@@ -6152,10 +6173,10 @@
     </row>
     <row r="425" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>5</v>
@@ -6163,10 +6184,10 @@
     </row>
     <row r="426" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>5</v>
@@ -6174,10 +6195,10 @@
     </row>
     <row r="427" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -6185,10 +6206,10 @@
     </row>
     <row r="428" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>5</v>
@@ -6196,10 +6217,10 @@
     </row>
     <row r="429" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>5</v>
@@ -6207,10 +6228,10 @@
     </row>
     <row r="430" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>5</v>
@@ -6218,10 +6239,10 @@
     </row>
     <row r="431" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -6229,10 +6250,10 @@
     </row>
     <row r="432" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -6240,10 +6261,10 @@
     </row>
     <row r="433" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -6251,10 +6272,10 @@
     </row>
     <row r="434" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -6262,10 +6283,10 @@
     </row>
     <row r="435" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -6273,10 +6294,10 @@
     </row>
     <row r="436" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -6284,10 +6305,10 @@
     </row>
     <row r="437" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -6295,10 +6316,10 @@
     </row>
     <row r="438" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -6306,10 +6327,10 @@
     </row>
     <row r="439" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -6317,10 +6338,10 @@
     </row>
     <row r="440" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -6328,10 +6349,10 @@
     </row>
     <row r="441" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -6339,10 +6360,10 @@
     </row>
     <row r="442" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -6350,10 +6371,10 @@
     </row>
     <row r="443" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -6361,10 +6382,10 @@
     </row>
     <row r="444" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -6372,10 +6393,10 @@
     </row>
     <row r="445" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -6383,10 +6404,10 @@
     </row>
     <row r="446" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -6394,10 +6415,10 @@
     </row>
     <row r="447" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -6405,10 +6426,10 @@
     </row>
     <row r="448" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -6416,10 +6437,10 @@
     </row>
     <row r="449" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -6427,10 +6448,10 @@
     </row>
     <row r="450" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -6438,10 +6459,10 @@
     </row>
     <row r="451" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -6449,10 +6470,10 @@
     </row>
     <row r="452" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -6460,10 +6481,10 @@
     </row>
     <row r="453" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -6471,10 +6492,10 @@
     </row>
     <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -6482,10 +6503,10 @@
     </row>
     <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -6493,10 +6514,10 @@
     </row>
     <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -6504,10 +6525,10 @@
     </row>
     <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -6515,10 +6536,10 @@
     </row>
     <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -6526,10 +6547,10 @@
     </row>
     <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -6537,10 +6558,10 @@
     </row>
     <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -6548,10 +6569,10 @@
     </row>
     <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -6559,10 +6580,10 @@
     </row>
     <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -6570,10 +6591,10 @@
     </row>
     <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -6581,10 +6602,10 @@
     </row>
     <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -6592,10 +6613,10 @@
     </row>
     <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -6603,10 +6624,10 @@
     </row>
     <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -6614,10 +6635,10 @@
     </row>
     <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -6625,10 +6646,10 @@
     </row>
     <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -6636,10 +6657,10 @@
     </row>
     <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
@@ -6656,10 +6677,10 @@
     </row>
     <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -6667,10 +6688,10 @@
     </row>
     <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -6678,10 +6699,10 @@
     </row>
     <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -6689,10 +6710,10 @@
     </row>
     <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>5</v>
@@ -6700,10 +6721,10 @@
     </row>
     <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -6711,10 +6732,10 @@
     </row>
     <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -6722,10 +6743,10 @@
     </row>
     <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>5</v>
@@ -6733,10 +6754,10 @@
     </row>
     <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>5</v>
@@ -6744,10 +6765,10 @@
     </row>
     <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>5</v>
@@ -6755,10 +6776,10 @@
     </row>
     <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>5</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1714,7 +1714,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B355" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C360" activeCellId="0" sqref="C360:C361"/>
+      <selection pane="topLeft" activeCell="B363" activeCellId="0" sqref="B363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5513,8 +5513,8 @@
       <c r="B362" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C362" s="5" t="s">
-        <v>5</v>
+      <c r="C362" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5524,8 +5524,8 @@
       <c r="B363" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C363" s="5" t="s">
-        <v>5</v>
+      <c r="C363" s="12" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
